--- a/biology/Botanique/Ixora_foliosa/Ixora_foliosa.xlsx
+++ b/biology/Botanique/Ixora_foliosa/Ixora_foliosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ixora foliosa Hiern est une espèce de plantes de la famille des Rubiaceae, du genre Ixora[2],[3]. 
-C’est une plante à fleur, du groupe des dicotylédones[3]. On la retrouve au Cameroun : Mont Cameroun, Mont Koupé, Manengouba, la zone montagnarde de Bamenda ; et au Nigeria : Chappal Waddi et Chappal Hendu. 
-Elle est évaluée suivant les critères de l’UICN comme une espèce vulnérable [4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ixora foliosa Hiern est une espèce de plantes de la famille des Rubiaceae, du genre Ixora,. 
+C’est une plante à fleur, du groupe des dicotylédones. On la retrouve au Cameroun : Mont Cameroun, Mont Koupé, Manengouba, la zone montagnarde de Bamenda ; et au Nigeria : Chappal Waddi et Chappal Hendu. 
+Elle est évaluée suivant les critères de l’UICN comme une espèce vulnérable ,.
 </t>
         </is>
       </c>
